--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\PYTOOL\private_project\neoserver\rsc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B51989-8F23-4B43-9FB9-39E226CA7E3A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094AC04-7767-415E-A691-3490B922AC7B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>webtoon</t>
   </si>
@@ -136,11 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT seq, fnk_uid, title, link, updt_date, reg_date, comment, type 
-        FROM neo_pwinfo.fav_link where type = 'MAIN'  {extra_condition}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>class_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,11 +172,6 @@
   </si>
   <si>
     <t>링크|편집|삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT seq, tdc_uid , title, issue, solution, etc, updt_date, reg_date, comment 
-   FROM neo_pwinfo.today_contents where True  {extra_condition}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -222,11 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT pwd_uid,site, B.title,ptail,B.phd_uid,id,A.etc 
-  FROM passwd A,pheader B where A.phd_uid = B.phd_uid {extra_condition}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UPDATE neo_pwinfo.fav_link
 SET
   title = '{title}' 
@@ -237,11 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT seq, fnk_uid, title, link, updt_date, reg_date, comment, type 
-        FROM neo_pwinfo.fav_link where type = 'PRIVATE'  {extra_condition}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INSERT INTO neo_pwinfo.fav_link(
    seq,fnk_uid  ,title  ,link  ,updt_date  ,reg_date  ,type
 ) VALUES (
@@ -255,10 +235,6 @@
   </si>
   <si>
     <t>/fav_link_prv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fav_link.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,6 +328,30 @@
   FROM neo_pwinfo.webtoon A , portal C
   where A.prt_uid = C.prt_uid
   {extra_condition}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout_with_list_form.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT seq, fnk_uid as cur_uid, title, link, updt_date, reg_date, comment, type 
+        FROM neo_pwinfo.fav_link where type = 'MAIN'  {extra_condition}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT seq, tdc_uid as cur_uid , title, issue, solution, etc, updt_date, reg_date, comment 
+   FROM neo_pwinfo.today_contents where True  {extra_condition}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT pwd_uid as cur_uid,site, B.title,ptail,B.phd_uid,id,A.etc 
+  FROM passwd A,pheader B where A.phd_uid = B.phd_uid {extra_condition}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT seq, fnk_uid as cur_uid, title, link, updt_date, reg_date, comment, type 
+        FROM neo_pwinfo.fav_link where type = 'PRIVATE'  {extra_condition}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +722,10 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -749,13 +749,13 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
@@ -770,10 +770,10 @@
         <v>28</v>
       </c>
       <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
         <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
@@ -782,7 +782,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="174" x14ac:dyDescent="0.4">
@@ -790,10 +790,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -811,13 +814,13 @@
         <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -825,7 +828,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -843,7 +846,7 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
@@ -851,11 +854,14 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
@@ -869,28 +875,31 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
@@ -904,16 +913,16 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="174" x14ac:dyDescent="0.4">
@@ -921,16 +930,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -939,19 +948,19 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
@@ -959,16 +968,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -980,33 +989,36 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -1021,13 +1033,13 @@
         <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1066,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -1084,12 +1096,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\neo_server\rsc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094AC04-7767-415E-A691-3490B922AC7B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3098B6AA-A1A5-4C17-B488-A37E9972AE83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>webtoon</t>
   </si>
@@ -352,6 +352,10 @@
   <si>
     <t>SELECT seq, fnk_uid as cur_uid, title, link, updt_date, reg_date, comment, type 
         FROM neo_pwinfo.fav_link where type = 'PRIVATE'  {extra_condition}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwd.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +729,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -935,6 +939,9 @@
       <c r="C6" t="s">
         <v>57</v>
       </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3098B6AA-A1A5-4C17-B488-A37E9972AE83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A04914-09A1-48B7-95C0-A7E07AA536CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -723,13 +724,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4C3340-1190-4F70-88CA-AE54D8205CD5}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -1011,44 +1012,6 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="174" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1057,6 +1020,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACFAA11-1382-4C43-8F18-99A86031A9F8}">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="174" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8B1B24-5EC1-4252-9264-098A8D76BD50}">
   <dimension ref="A1:A12"/>
   <sheetViews>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A04914-09A1-48B7-95C0-A7E07AA536CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C333D93-25CB-4AE2-B7CD-89410937EE69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
@@ -337,26 +337,26 @@
   </si>
   <si>
     <t>SELECT seq, fnk_uid as cur_uid, title, link, updt_date, reg_date, comment, type 
-        FROM neo_pwinfo.fav_link where type = 'MAIN'  {extra_condition}</t>
+        FROM neo_pwinfo.fav_link where type = 'PRIVATE'  {extra_condition}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwd.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SELECT seq, tdc_uid as cur_uid , title, issue, solution, etc, updt_date, reg_date, comment 
-   FROM neo_pwinfo.today_contents where True  {extra_condition}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT pwd_uid as cur_uid,site, B.title,ptail,B.phd_uid,id,A.etc 
-  FROM passwd A,pheader B where A.phd_uid = B.phd_uid {extra_condition}</t>
+   FROM neo_pwinfo.today_contents where True  {extra_condition} order by updt_date desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SELECT seq, fnk_uid as cur_uid, title, link, updt_date, reg_date, comment, type 
-        FROM neo_pwinfo.fav_link where type = 'PRIVATE'  {extra_condition}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwd.html</t>
+        FROM neo_pwinfo.fav_link where type = 'MAIN'  {extra_condition} order by updt_date desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT pwd_uid as cur_uid,site, B.title,ptail,B.phd_uid,id,A.etc ,A.updt_date
+  FROM passwd A,pheader B where A.phd_uid = B.phd_uid {extra_condition} order by updt_date desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -741,10 +741,10 @@
     <col min="4" max="4" width="25.8984375" customWidth="1"/>
     <col min="5" max="5" width="14.8984375" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="42.59765625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="19.296875" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="42.59765625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="19.296875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.8984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="28.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.09765625" bestFit="1" customWidth="1"/>
   </cols>
@@ -883,7 +883,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>44</v>
@@ -921,7 +921,7 @@
         <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>46</v>
@@ -941,7 +941,7 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -959,7 +959,7 @@
         <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>54</v>
@@ -1000,7 +1000,7 @@
         <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>49</v>
@@ -1029,7 +1029,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="174" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>63</v>
       </c>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C333D93-25CB-4AE2-B7CD-89410937EE69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9244AD0E-7DE0-479B-93BC-A3D1B6A98159}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>webtoon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KeywordOrderWebApp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,6 +353,10 @@
   <si>
     <t>SELECT pwd_uid as cur_uid,site, B.title,ptail,B.phd_uid,id,A.etc ,A.updt_date
   FROM passwd A,pheader B where A.phd_uid = B.phd_uid {extra_condition} order by updt_date desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹툰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +730,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -760,7 +760,7 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
@@ -775,10 +775,10 @@
         <v>28</v>
       </c>
       <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
         <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
@@ -787,7 +787,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="174" x14ac:dyDescent="0.4">
@@ -798,10 +798,10 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -819,13 +819,13 @@
         <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -833,7 +833,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -851,7 +851,7 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
@@ -865,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -880,21 +880,21 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -903,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -918,16 +918,16 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="174" x14ac:dyDescent="0.4">
@@ -938,16 +938,16 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -956,19 +956,19 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
@@ -979,13 +979,13 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -997,19 +997,19 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1031,19 +1031,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1058,13 +1058,13 @@
         <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1120,12 +1120,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9244AD0E-7DE0-479B-93BC-A3D1B6A98159}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C335F1-9712-4C1E-9F96-7EDBC4266F70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>webtoon</t>
   </si>
@@ -35,9 +35,6 @@
     <t>wtn</t>
   </si>
   <si>
-    <t>/webtoon</t>
-  </si>
-  <si>
     <t>웹툰리스트</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>fnk</t>
   </si>
   <si>
-    <t>/fav_link</t>
-  </si>
-  <si>
     <t>이 페이지는 개인 링크를 저장하는 페이지 이다..</t>
   </si>
   <si>
@@ -65,18 +59,12 @@
     <t>tdc</t>
   </si>
   <si>
-    <t>/today_contents</t>
-  </si>
-  <si>
     <t>이 페이지는 유용 정보를 저장하는 페이지 이다.</t>
   </si>
   <si>
     <t>passwd</t>
   </si>
   <si>
-    <t>/passwd</t>
-  </si>
-  <si>
     <t>패스워드 정보</t>
   </si>
   <si>
@@ -90,9 +78,6 @@
   </si>
   <si>
     <t>kwo</t>
-  </si>
-  <si>
-    <t>/keyword_order</t>
   </si>
   <si>
     <t>각 포털의 검색어 순위를 보는 사이트 입니다.</t>
@@ -228,10 +213,6 @@
   </si>
   <si>
     <t>temp_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/fav_link_prv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -357,6 +338,46 @@
   </si>
   <si>
     <t>웹툰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/webtoon.neo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fav_link.neo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/today_contents.neo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/keyword_order.neo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/passwd.neo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fav_link_prv.neo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test_web.neo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout_with_list_form2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webtoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webtoon.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,13 +745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4C3340-1190-4F70-88CA-AE54D8205CD5}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -739,7 +760,7 @@
     <col min="2" max="2" width="28.19921875" customWidth="1"/>
     <col min="3" max="3" width="25.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.8984375" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="20.09765625" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.09765625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="42.59765625" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -751,60 +772,60 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -813,203 +834,241 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="191.4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1028,22 +1087,25 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="10" max="12" width="27.296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="191.4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1052,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1085,62 +1147,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C335F1-9712-4C1E-9F96-7EDBC4266F70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000F0C28-8429-40B9-80B8-B530EEC75CC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>webtoon</t>
   </si>
@@ -378,6 +378,14 @@
   </si>
   <si>
     <t>webtoon.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fav_link.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>today_contents.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +759,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -886,7 +894,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -924,7 +932,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>70</v>
@@ -1033,7 +1041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="191.4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>56</v>
       </c>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000F0C28-8429-40B9-80B8-B530EEC75CC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E85D8D1-8D78-4099-8FBD-DCF86FB6A7FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>webtoon</t>
   </si>
@@ -377,15 +377,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>webtoon.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fav_link.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>today_contents.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,10 +748,10 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -829,9 +821,6 @@
       <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
       <c r="E2" t="s">
         <v>68</v>
       </c>
@@ -893,9 +882,6 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
       <c r="E4" t="s">
         <v>69</v>
       </c>
@@ -931,9 +917,6 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
       <c r="E5" t="s">
         <v>70</v>
       </c>
@@ -1011,7 +994,7 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>73</v>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E85D8D1-8D78-4099-8FBD-DCF86FB6A7FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D224EB3-300C-4DE6-941A-5D175DD1EB06}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
   <si>
     <t>webtoon</t>
   </si>
@@ -327,11 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT seq, fnk_uid as cur_uid, title, link, updt_date, reg_date, comment, type 
-        FROM neo_pwinfo.fav_link where type = 'MAIN'  {extra_condition} order by updt_date desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT pwd_uid as cur_uid,site, B.title,ptail,B.phd_uid,id,A.etc ,A.updt_date
   FROM passwd A,pheader B where A.phd_uid = B.phd_uid {extra_condition} order by updt_date desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,6 +373,22 @@
   </si>
   <si>
     <t>fav_link.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT seq, fnk_uid as cur_uid, title, link, updt_date, reg_date, comment, type 
+        FROM neo_pwinfo.fav_link where type = 'MAIN'   {extra_condition} order by updt_date desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT A.wtn_uid as cur_uid, title,today_title,lastno , 
+  id, dates, C.prt_uid,
+  C.name as portal_name ,
+  C.list_webtoon as list_url,
+  C.contents_webtoon as detail_url
+  FROM neo_pwinfo.webtoon A , portal C
+  where A.prt_uid = C.prt_uid  
+  {extra_condition}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,10 +759,10 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -813,16 +824,16 @@
     </row>
     <row r="2" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
         <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -837,7 +848,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>46</v>
@@ -857,7 +868,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -883,7 +894,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -898,7 +909,7 @@
         <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>38</v>
@@ -918,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -956,7 +967,7 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -971,7 +982,7 @@
         <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>47</v>
@@ -994,10 +1005,10 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -1035,10 +1046,10 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D224EB3-300C-4DE6-941A-5D175DD1EB06}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DD53E7-345B-487F-8B3A-DF65DF2D7DCE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -376,11 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT seq, fnk_uid as cur_uid, title, link, updt_date, reg_date, comment, type 
-        FROM neo_pwinfo.fav_link where type = 'MAIN'   {extra_condition} order by updt_date desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT A.wtn_uid as cur_uid, title,today_title,lastno , 
   id, dates, C.prt_uid,
   C.name as portal_name ,
@@ -389,6 +385,11 @@
   FROM neo_pwinfo.webtoon A , portal C
   where A.prt_uid = C.prt_uid  
   {extra_condition}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT seq, fnk_uid as cur_uid, title, link, updt_date, reg_date, comment, type 
+        FROM neo_pwinfo.fav_link where True {extra_condition} order by updt_date desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,13 +757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4C3340-1190-4F70-88CA-AE54D8205CD5}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -848,7 +849,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>46</v>
@@ -909,7 +910,7 @@
         <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>38</v>
@@ -992,85 +993,6 @@
       </c>
       <c r="M6" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="174" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1212,4 +1134,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17DC4A8-2C2C-420E-AD1F-24C398C7DE04}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="174" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DD53E7-345B-487F-8B3A-DF65DF2D7DCE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94795C46-F764-4A9E-9C2C-ADFD3AF0B365}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
@@ -184,13 +184,6 @@
 </t>
   </si>
   <si>
-    <t>INSERT INTO neo_pwinfo.today_contents(
-   seq  ,tdc_uid  ,title  ,issue  ,solution    ,updt_date  ,reg_date
-) VALUES (
-    {last_seq}  ,'{last_uid}'   ,'{title}'  ,'{issue}'   ,'{solution}'    ,now()  ,now() 
-)</t>
-  </si>
-  <si>
     <t>제목|삭제|날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,6 +383,14 @@
   <si>
     <t>SELECT seq, fnk_uid as cur_uid, title, link, updt_date, reg_date, comment, type 
         FROM neo_pwinfo.fav_link where True {extra_condition} order by updt_date desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO neo_pwinfo.today_contents(
+   seq  ,tdc_uid  ,title  ,issue  ,solution ,status   ,updt_date  ,reg_date
+) VALUES (
+    {last_seq}  ,'{last_uid}'   ,'{title}'  ,'{issue}'   ,'{solution}'  ,''  ,now()  ,now() 
+)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +764,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -793,7 +794,7 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -820,21 +821,21 @@
         <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -849,13 +850,13 @@
         <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -869,7 +870,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -881,7 +882,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
@@ -895,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -910,7 +911,7 @@
         <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>38</v>
@@ -930,7 +931,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -942,16 +943,16 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="174" x14ac:dyDescent="0.4">
@@ -962,16 +963,16 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -980,19 +981,19 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1017,19 +1018,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="191.4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1044,13 +1045,13 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1148,19 +1149,19 @@
   <sheetData>
     <row r="1" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1175,13 +1176,13 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
@@ -1192,13 +1193,13 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1213,16 +1214,16 @@
         <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94795C46-F764-4A9E-9C2C-ADFD3AF0B365}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FCC506-C728-43FF-9BC6-3FB15AF270DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
@@ -761,10 +761,10 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -1147,7 +1147,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="174" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FCC506-C728-43FF-9BC6-3FB15AF270DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3E6A0A-4AB9-4648-B718-73B07B4D580D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>webtoon</t>
   </si>
@@ -390,6 +390,14 @@
    seq  ,tdc_uid  ,title  ,issue  ,solution ,status   ,updt_date  ,reg_date
 ) VALUES (
     {last_seq}  ,'{last_uid}'   ,'{title}'  ,'{issue}'   ,'{solution}'  ,''  ,now()  ,now() 
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO neo_pwinfo.webtoon(
+   seq  ,wtn_uid  ,prt_uid  ,title   ,id  ,dates ,status    ,updt_date  ,reg_date 
+) VALUES (
+   {last_seq}  ,'{last_uid}'  ,'{prt_uid}'  ,'{title}'   ,'{id}'  ,'{dates}'  ,'',now()  ,now()
 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -761,10 +769,10 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -856,7 +864,7 @@
         <v>45</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3E6A0A-4AB9-4648-B718-73B07B4D580D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C27CB78-7CCA-48F2-80B8-F2E80BE3B593}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4728" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
+    <workbookView xWindow="1740" yWindow="1812" windowWidth="21300" windowHeight="10224" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>webtoon</t>
   </si>
@@ -399,6 +399,67 @@
 ) VALUES (
    {last_seq}  ,'{last_uid}'  ,'{prt_uid}'  ,'{title}'   ,'{id}'  ,'{dates}'  ,'',now()  ,now()
 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthWebApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/health.neo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT seq, hlt_uid, sys_bp, dia_bp, pulse, weight, param, type, updt_date, reg_date, comment 
+FROM health where True {extra_condition} order by updt_date desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스 정보를 입력 하는 곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE health
+SET
+  sys_bp = '{sys_bp}'
+  ,dia_bp = '{dia_bp}' 
+  ,pulse = '{pulse}' 
+  ,weight = '{weight}'
+  ,param = '{param}' 
+  ,type = '{type}' 
+  ,status = '{status}' 
+  ,updt_date =now()
+ WHERE hlt_uid = '{cur_uid}' </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+INSERT INTO health(
+   seq  ,hlt_uid  ,sys_bp  ,dia_bp
+  ,pulse  ,weight  ,param
+  ,type ,status ,updt_date  ,reg_date
+) VALUES (
+   {last_seq},'{last_uid}'
+  ,'{sys_bp}','{dia_bp}','{pulse}' 
+  ,'{weight}','{param}','{type}' ,'{status}' 
+  ,now()  ,now()
+ )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,13 +827,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4C3340-1190-4F70-88CA-AE54D8205CD5}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -783,10 +844,10 @@
     <col min="4" max="4" width="25.8984375" customWidth="1"/>
     <col min="5" max="5" width="20.09765625" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="42.59765625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="19.296875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="30.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="42.59765625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="19.296875" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.8984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.09765625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1002,6 +1063,44 @@
       </c>
       <c r="M6" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="208.8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\PYSERVER\src\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C27CB78-7CCA-48F2-80B8-F2E80BE3B593}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1812" windowWidth="21300" windowHeight="10224" xr2:uid="{B0E0DE65-FA25-4D03-8955-531C0911F340}"/>
+    <workbookView xWindow="1740" yWindow="1815" windowWidth="21300" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -321,11 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT pwd_uid as cur_uid,site, B.title,ptail,B.phd_uid,id,A.etc ,A.updt_date
-  FROM passwd A,pheader B where A.phd_uid = B.phd_uid {extra_condition} order by updt_date desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>웹툰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,11 +417,6 @@
   </si>
   <si>
     <t>hlt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT seq, hlt_uid, sys_bp, dia_bp, pulse, weight, param, type, updt_date, reg_date, comment 
-FROM health where True {extra_condition} order by updt_date desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -462,11 +451,21 @@
  )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SELECT pwd_uid as cur_uid,site, B.title,ptail,B.phd_uid,id,A.etc ,A.updt_date
+  FROM passwd A,pheader B where A.phd_uid = B.phd_uid {extra_condition} order by updt_date desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT seq, hlt_uid as cur_uid, sys_bp, dia_bp, pulse, weight, param, type, updt_date, reg_date, comment 
+FROM health where True {extra_condition} order by updt_date desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -826,33 +825,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4C3340-1190-4F70-88CA-AE54D8205CD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" customWidth="1"/>
-    <col min="3" max="3" width="25.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.8984375" customWidth="1"/>
-    <col min="5" max="5" width="20.09765625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="42.59765625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="19.296875" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="42.625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -893,18 +892,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="174" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="165" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -919,16 +918,16 @@
         <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -939,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -954,7 +953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -965,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -980,7 +979,7 @@
         <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>38</v>
@@ -989,7 +988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="174" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1021,10 +1020,10 @@
         <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="174" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="165" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1037,7 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -1053,7 +1052,7 @@
         <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>46</v>
@@ -1065,42 +1064,42 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="208.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>81</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>83</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>84</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
         <v>85</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
       </c>
       <c r="I7" t="s">
         <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1111,19 +1110,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACFAA11-1382-4C43-8F18-99A86031A9F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="12" width="27.296875" customWidth="1"/>
+    <col min="10" max="12" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="191.4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1168,71 +1167,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8B1B24-5EC1-4252-9264-098A8D76BD50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1245,16 +1244,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17DC4A8-2C2C-420E-AD1F-24C398C7DE04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1265,10 +1264,10 @@
         <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1292,7 +1291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1303,10 +1302,10 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\PYSERVER\src\neo_server\rsc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A241F0-54B1-4B81-8463-5EAE61D33822}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1815" windowWidth="21300" windowHeight="10230"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개인 PW 정보(로그인필요)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,6 +418,16 @@
   </si>
   <si>
     <t>헬스 정보를 입력 하는 곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT pwd_uid as cur_uid,site, B.title,ptail,B.phd_uid,id,A.etc ,A.updt_date
+  FROM passwd A,pheader B where A.phd_uid = B.phd_uid {extra_condition} order by updt_date desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT seq, hlt_uid as cur_uid, sys_bp, dia_bp, pulse, weight, param, type, updt_date, reg_date, comment 
+FROM health where True {extra_condition} order by updt_date desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -433,6 +440,7 @@
   ,param = '{param}' 
   ,type = '{type}' 
   ,status = '{status}' 
+ ,comment = '{comment}' 
   ,updt_date =now()
  WHERE hlt_uid = '{cur_uid}' </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,30 +450,24 @@
 INSERT INTO health(
    seq  ,hlt_uid  ,sys_bp  ,dia_bp
   ,pulse  ,weight  ,param
-  ,type ,status ,updt_date  ,reg_date
+  ,type ,status ,comment,updt_date  ,reg_date
 ) VALUES (
    {last_seq},'{last_uid}'
   ,'{sys_bp}','{dia_bp}','{pulse}' 
-  ,'{weight}','{param}','{type}' ,'{status}' 
+  ,'{weight}','{param}','{type}' ,'{status}' ,'{comment}' 
   ,now()  ,now()
  )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT pwd_uid as cur_uid,site, B.title,ptail,B.phd_uid,id,A.etc ,A.updt_date
-  FROM passwd A,pheader B where A.phd_uid = B.phd_uid {extra_condition} order by updt_date desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT seq, hlt_uid as cur_uid, sys_bp, dia_bp, pulse, weight, param, type, updt_date, reg_date, comment 
-FROM health where True {extra_condition} order by updt_date desc</t>
+    <t>개인 PW 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -825,33 +827,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="42.625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="19.25" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="3" max="3" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="42.59765625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="19.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.8984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -889,21 +891,21 @@
         <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="165" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -918,16 +920,16 @@
         <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -938,7 +940,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -950,156 +952,156 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="243.6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="J4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="174" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="174" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>66</v>
       </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="165" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1110,33 +1112,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="12" width="27.25" customWidth="1"/>
+    <col min="10" max="12" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="191.4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1151,13 +1153,13 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1167,71 +1169,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1244,30 +1246,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1282,16 +1284,16 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1302,10 +1304,10 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1320,7 +1322,7 @@
         <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>42</v>
@@ -1329,7 +1331,7 @@
         <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A241F0-54B1-4B81-8463-5EAE61D33822}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684BD1A4-AE8C-4AA1-B9D4-3B49E5209EF0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,11 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT seq, hlt_uid as cur_uid, sys_bp, dia_bp, pulse, weight, param, type, updt_date, reg_date, comment 
-FROM health where True {extra_condition} order by updt_date desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">UPDATE health
 SET
   sys_bp = '{sys_bp}'
@@ -461,6 +456,11 @@
   </si>
   <si>
     <t>개인 PW 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT seq, hlt_uid as cur_uid, sys_bp, dia_bp, pulse, weight, param, type, updt_date, reg_date, comment, CONCAT(sys_bp,'/' ,dia_bp,'(', pulse,')') as bp,DATE_FORMAT(updt_date, "%Y-%m-%d %H:%i") as dt
+FROM health where True {extra_condition} order by updt_date desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,10 +831,10 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -984,13 +984,13 @@
         <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="174" x14ac:dyDescent="0.4">
@@ -1001,7 +1001,7 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684BD1A4-AE8C-4AA1-B9D4-3B49E5209EF0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870ABCA9-0F0A-49E8-9542-91D630CA9567}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT seq, hlt_uid as cur_uid, sys_bp, dia_bp, pulse, weight, param, type, updt_date, reg_date, comment, CONCAT(sys_bp,'/' ,dia_bp,'(', pulse,')') as bp,DATE_FORMAT(updt_date, "%Y-%m-%d %H:%i") as dt
+    <t>SELECT seq, hlt_uid as cur_uid, sys_bp, dia_bp, pulse, weight, param, type, updt_date, reg_date, comment, CONCAT(sys_bp,'/' ,dia_bp,'(', pulse,')') as bp,DATE_FORMAT(reg_date, "%Y-%m-%d %H:%i") as dt
 FROM health where True {extra_condition} order by updt_date desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870ABCA9-0F0A-49E8-9542-91D630CA9567}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0766DF1-AB6A-4F2B-B27F-C1B12C0CD8B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   </si>
   <si>
     <t>SELECT seq, hlt_uid as cur_uid, sys_bp, dia_bp, pulse, weight, param, type, updt_date, reg_date, comment, CONCAT(sys_bp,'/' ,dia_bp,'(', pulse,')') as bp,DATE_FORMAT(reg_date, "%Y-%m-%d %H:%i") as dt
-FROM health where True {extra_condition} order by updt_date desc</t>
+FROM health where True {extra_condition} order by reg_date desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0766DF1-AB6A-4F2B-B27F-C1B12C0CD8B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52B2299-C5C1-4F1F-822E-4EF573C2099F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,8 +459,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT seq, hlt_uid as cur_uid, sys_bp, dia_bp, pulse, weight, param, type, updt_date, reg_date, comment, CONCAT(sys_bp,'/' ,dia_bp,'(', pulse,')') as bp,DATE_FORMAT(reg_date, "%Y-%m-%d %H:%i") as dt
-FROM health where True {extra_condition} order by reg_date desc</t>
+    <t xml:space="preserve">SELECT seq, hlt_uid as cur_uid, sys_bp, dia_bp, pulse, weight, param, type, updt_date, reg_date, comment, 
+CONCAT(sys_bp,'/' ,dia_bp,'(', pulse,')') as bp,
+DATE_FORMAT(reg_date, "%m/%d %H:%i") as dt,
+SUBSTR( _UTF8'일월화수목금토', DAYOFWEEK(reg_date), 1) AS week
+FROM health where True {extra_condition} order by reg_date desc
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\PYSERVER\src\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52B2299-C5C1-4F1F-822E-4EF573C2099F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +460,7 @@
   <si>
     <t xml:space="preserve">SELECT seq, hlt_uid as cur_uid, sys_bp, dia_bp, pulse, weight, param, type, updt_date, reg_date, comment, 
 CONCAT(sys_bp,'/' ,dia_bp,'(', pulse,')') as bp,
-DATE_FORMAT(reg_date, "%m/%d %H:%i") as dt,
+DATE_FORMAT(reg_date, "%Y-%m-%d %H:%i:%S") as dt,
 SUBSTR( _UTF8'일월화수목금토', DAYOFWEEK(reg_date), 1) AS week
 FROM health where True {extra_condition} order by reg_date desc
 </t>
@@ -471,7 +470,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -831,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -841,23 +840,23 @@
       <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" customWidth="1"/>
-    <col min="3" max="3" width="25.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.8984375" customWidth="1"/>
-    <col min="5" max="5" width="20.09765625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="42.59765625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="19.19921875" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="42.625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -898,7 +897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="174" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="165" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -933,7 +932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -959,7 +958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="243.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="231" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -997,7 +996,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="174" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="165" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="174" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1116,19 +1115,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="12" width="27.19921875" customWidth="1"/>
+    <col min="10" max="12" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="191.4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1173,71 +1172,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1250,16 +1249,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\PYSERVER\src\neo_server\rsc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB38F382-EC4C-44B1-919F-DB4D51B0E07A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>webtoon</t>
   </si>
@@ -466,11 +467,15 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -830,33 +835,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="42.625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="19.25" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="3" max="3" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="42.59765625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="19.19921875" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.8984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -897,7 +902,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="165" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -931,8 +936,11 @@
       <c r="L2" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -957,8 +965,11 @@
       <c r="I3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="231" x14ac:dyDescent="0.3">
+      <c r="M3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="243.6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -995,8 +1006,11 @@
       <c r="L4" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="165" x14ac:dyDescent="0.3">
+      <c r="M4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1037,7 +1051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1071,8 +1085,11 @@
       <c r="L6" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="198" x14ac:dyDescent="0.3">
+      <c r="M6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="174" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1105,6 +1122,9 @@
       </c>
       <c r="L7" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1115,19 +1135,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="12" width="27.25" customWidth="1"/>
+    <col min="10" max="12" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="191.4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1172,71 +1192,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1249,16 +1269,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1296,7 +1316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>

--- a/rsc/neoserver_page_info.xlsx
+++ b/rsc/neoserver_page_info.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\neo_server\rsc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\PYSERVER\src\neo_server\rsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB38F382-EC4C-44B1-919F-DB4D51B0E07A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -160,22 +159,6 @@
   <si>
     <t>today_contents</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE neo_pwinfo.fav_link
-SET
-  title = '{title}' 
-  ,link = '{link}' 
-  ,updt_date = now()
-  ,type = 'MAIN'
-WHERE fnk_uid = '{cur_uid}'</t>
-  </si>
-  <si>
-    <t>INSERT INTO neo_pwinfo.fav_link(
-   seq,fnk_uid  ,title  ,link  ,updt_date  ,reg_date  ,type
-) VALUES (
-   {last_seq}  ,'{last_uid}'    ,'{title}'  ,'{link}'   ,now() ,now() ,'MAIN'
-)</t>
   </si>
   <si>
     <t xml:space="preserve">UPDATE neo_pwinfo.today_contents 
@@ -471,11 +454,29 @@
     <t>general</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UPDATE neo_pwinfo.fav_link
+SET
+  title = '{title}' 
+  ,link = '{link}' 
+  ,updt_date = now()
+  ,type = '{type}'
+WHERE fnk_uid = '{cur_uid}'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO neo_pwinfo.fav_link(
+   seq,fnk_uid  ,title  ,link  ,updt_date  ,reg_date  ,type
+) VALUES (
+   {last_seq}  ,'{last_uid}'    ,'{title}'  ,'{link}'   ,now() ,now() ,'{type}'
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -835,33 +836,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" customWidth="1"/>
-    <col min="3" max="3" width="25.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.8984375" customWidth="1"/>
-    <col min="5" max="5" width="20.09765625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="42.59765625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="19.19921875" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="42.625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="30.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -872,7 +873,7 @@
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -899,21 +900,21 @@
         <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="174" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="165" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -928,19 +929,19 @@
         <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -951,7 +952,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -963,54 +964,54 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="243.6" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="231" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>80</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
         <v>82</v>
       </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="174" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="165" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1018,16 +1019,16 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -1036,22 +1037,22 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="121.8" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -1077,19 +1078,19 @@
         <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="174" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -1112,19 +1113,19 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1135,33 +1136,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="12" width="27.19921875" customWidth="1"/>
+    <col min="10" max="12" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="191.4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1176,13 +1177,13 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1192,71 +1193,71 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1269,30 +1270,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1307,16 +1308,16 @@
         <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1324,13 +1325,13 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1345,16 +1346,16 @@
         <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
